--- a/ExcelGuide/uploads/ExcelGuide.xlsx
+++ b/ExcelGuide/uploads/ExcelGuide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viborgskoler15-my.sharepoint.com/personal/alek1024_viborgskoler_dk/Documents/2022-2023 Lærermappe/Matematik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viborgskoler15-my.sharepoint.com/personal/alek1024_viborgskoler_dk/Documents/Dokumenter/GitHub/AleksHolland84.github.io/ExcelGuide/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{750FDB6A-426C-48F4-8699-6676EFF33376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0278D841-ACD9-4078-BAF6-A3F9F8D62EA0}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{750FDB6A-426C-48F4-8699-6676EFF33376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{816B2604-00E1-48D0-A3D2-E4D6275B5F8C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="28800" windowHeight="15420" xr2:uid="{A8298944-B709-4146-B84A-018C1C91B5D3}"/>
+    <workbookView xWindow="31995" yWindow="1050" windowWidth="28800" windowHeight="15420" activeTab="1" xr2:uid="{A8298944-B709-4146-B84A-018C1C91B5D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tæl Hvis" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,6 @@
     <t>Reference til Ark1 celle A1 i Workbook data.xlsx</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Tæl hvis dato er større end 07-10-2021, med reference til en celle</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>Reference til Ark3 celle E6</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,12 +900,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AEA647-127A-4F8E-B8AE-97460EEE8F6B}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:K4"/>
+    <sheetView zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1537,7 @@
       <c r="K2" s="37"/>
       <c r="R2">
         <f>COUNTIF(B2,"*"&amp;$F$5&amp;"*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1570,8 +1570,8 @@
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
       <c r="R3">
-        <f t="shared" ref="R3:R16" si="0">COUNTIF(B3,"*"&amp;$F$5&amp;"*")</f>
-        <v>1</v>
+        <f t="shared" ref="R3:R15" si="0">COUNTIF(B3,"*"&amp;$F$5&amp;"*")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
       <c r="K4" s="39"/>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,11 +1622,11 @@
         <v>58</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <f>COUNTIF($B$2:$B$17,"*"&amp;F5&amp;"*")</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>85</v>
@@ -1660,14 +1660,14 @@
         <v>7</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1694,14 +1694,14 @@
         <v>7</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -1769,7 +1769,7 @@
       <c r="K9" s="5"/>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
       <c r="K12" s="39"/>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,14 +1892,14 @@
         <v>400</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
       <c r="K15" s="38"/>
       <c r="R15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
       <c r="K16" s="38"/>
       <c r="R16">
         <f>COUNTIF(B16,"*"&amp;$F$5&amp;"*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2086,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516BFB4D-45B8-4A6A-8E78-9535E5F5AFDC}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4338,48 +4338,48 @@
       <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -4410,22 +4410,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="B9" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22">
         <f>H6</f>
@@ -4472,7 +4472,7 @@
       <c r="B10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D21" si="0">$E$6</f>
         <v>400</v>
@@ -4500,7 +4500,7 @@
       <c r="B11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4529,7 +4529,7 @@
       <c r="B12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4558,7 +4558,7 @@
       <c r="B13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4587,7 +4587,7 @@
       <c r="B14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4616,7 +4616,7 @@
       <c r="B15" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4645,7 +4645,7 @@
       <c r="B16" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4674,7 +4674,7 @@
       <c r="B17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4703,7 +4703,7 @@
       <c r="B18" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4732,7 +4732,7 @@
       <c r="B19" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4761,7 +4761,7 @@
       <c r="B20" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4790,7 +4790,7 @@
       <c r="B21" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4819,7 +4819,7 @@
       <c r="B22" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="22">
         <f>SUM(F9:F21)</f>
         <v>36</v>
@@ -4847,7 +4847,7 @@
       <c r="B23" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="22">
         <f t="shared" ref="D23:D34" si="5">$E$6</f>
         <v>400</v>
@@ -4875,7 +4875,7 @@
       <c r="B24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -4904,7 +4904,7 @@
       <c r="B25" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -4933,7 +4933,7 @@
       <c r="B26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -4962,7 +4962,7 @@
       <c r="B27" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -4991,7 +4991,7 @@
       <c r="B28" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5020,7 +5020,7 @@
       <c r="B29" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5049,7 +5049,7 @@
       <c r="B30" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5078,7 +5078,7 @@
       <c r="B31" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5107,7 +5107,7 @@
       <c r="B32" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5136,7 +5136,7 @@
       <c r="B33" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5165,7 +5165,7 @@
       <c r="B34" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5194,7 +5194,7 @@
       <c r="B35" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="22">
         <f>SUM(F22:F34)</f>
         <v>84.36</v>
@@ -5222,7 +5222,7 @@
       <c r="B36" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="22">
         <f t="shared" ref="D36:D47" si="9">$E$6</f>
         <v>400</v>
@@ -5250,7 +5250,7 @@
       <c r="B37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5279,7 +5279,7 @@
       <c r="B38" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5308,7 +5308,7 @@
       <c r="B39" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5337,7 +5337,7 @@
       <c r="B40" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5366,7 +5366,7 @@
       <c r="B41" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="50"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5395,7 +5395,7 @@
       <c r="B42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5424,7 +5424,7 @@
       <c r="B43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="50"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5453,7 +5453,7 @@
       <c r="B44" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5482,7 +5482,7 @@
       <c r="B45" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5511,7 +5511,7 @@
       <c r="B46" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="50"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5540,7 +5540,7 @@
       <c r="B47" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="50"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5569,7 +5569,7 @@
       <c r="B48" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="50"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="22">
         <f>G47</f>
         <v>133.20359999999999</v>
@@ -6033,11 +6033,36 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
@@ -6050,36 +6075,11 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/ExcelGuide/uploads/ExcelGuide.xlsx
+++ b/ExcelGuide/uploads/ExcelGuide.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="250" documentId="8_{750FDB6A-426C-48F4-8699-6676EFF33376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{816B2604-00E1-48D0-A3D2-E4D6275B5F8C}"/>
   <bookViews>
-    <workbookView xWindow="31995" yWindow="1050" windowWidth="28800" windowHeight="15420" activeTab="1" xr2:uid="{A8298944-B709-4146-B84A-018C1C91B5D3}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11505" xr2:uid="{A8298944-B709-4146-B84A-018C1C91B5D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tæl Hvis" sheetId="1" r:id="rId1"/>
@@ -879,14 +879,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -900,6 +894,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AEA647-127A-4F8E-B8AE-97460EEE8F6B}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516BFB4D-45B8-4A6A-8E78-9535E5F5AFDC}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4338,48 +4338,48 @@
       <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -4410,22 +4410,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="B9" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22">
         <f>H6</f>
@@ -4472,7 +4472,7 @@
       <c r="B10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D21" si="0">$E$6</f>
         <v>400</v>
@@ -4500,7 +4500,7 @@
       <c r="B11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4529,7 +4529,7 @@
       <c r="B12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4558,7 +4558,7 @@
       <c r="B13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4587,7 +4587,7 @@
       <c r="B14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4616,7 +4616,7 @@
       <c r="B15" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4645,7 +4645,7 @@
       <c r="B16" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4674,7 +4674,7 @@
       <c r="B17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4703,7 +4703,7 @@
       <c r="B18" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4732,7 +4732,7 @@
       <c r="B19" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4761,7 +4761,7 @@
       <c r="B20" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4790,7 +4790,7 @@
       <c r="B21" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4819,7 +4819,7 @@
       <c r="B22" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="22">
         <f>SUM(F9:F21)</f>
         <v>36</v>
@@ -4847,7 +4847,7 @@
       <c r="B23" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="22">
         <f t="shared" ref="D23:D34" si="5">$E$6</f>
         <v>400</v>
@@ -4875,7 +4875,7 @@
       <c r="B24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -4904,7 +4904,7 @@
       <c r="B25" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -4933,7 +4933,7 @@
       <c r="B26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -4962,7 +4962,7 @@
       <c r="B27" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -4991,7 +4991,7 @@
       <c r="B28" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5020,7 +5020,7 @@
       <c r="B29" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5049,7 +5049,7 @@
       <c r="B30" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="49"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5078,7 +5078,7 @@
       <c r="B31" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5107,7 +5107,7 @@
       <c r="B32" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5136,7 +5136,7 @@
       <c r="B33" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5165,7 +5165,7 @@
       <c r="B34" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="22">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -5194,7 +5194,7 @@
       <c r="B35" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="22">
         <f>SUM(F22:F34)</f>
         <v>84.36</v>
@@ -5222,7 +5222,7 @@
       <c r="B36" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="22">
         <f t="shared" ref="D36:D47" si="9">$E$6</f>
         <v>400</v>
@@ -5250,7 +5250,7 @@
       <c r="B37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5279,7 +5279,7 @@
       <c r="B38" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5308,7 +5308,7 @@
       <c r="B39" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5337,7 +5337,7 @@
       <c r="B40" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5366,7 +5366,7 @@
       <c r="B41" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5395,7 +5395,7 @@
       <c r="B42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5424,7 +5424,7 @@
       <c r="B43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5453,7 +5453,7 @@
       <c r="B44" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5482,7 +5482,7 @@
       <c r="B45" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5511,7 +5511,7 @@
       <c r="B46" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="49"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5540,7 +5540,7 @@
       <c r="B47" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="49"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="22">
         <f t="shared" si="9"/>
         <v>400</v>
@@ -5569,7 +5569,7 @@
       <c r="B48" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="22">
         <f>G47</f>
         <v>133.20359999999999</v>
@@ -6033,12 +6033,35 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -6051,35 +6074,12 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
